--- a/spreadsheet/macrofree/azureopenai_sg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/azureopenai_sg_checklist.es.xlsx
@@ -1061,7 +1061,7 @@
       <c r="B8" s="21" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Supervise los límites de frecuencia para el pago por uso: si usa el enfoque de pago por uso, administre los límites de tarifa para las implementaciones del modelo y supervise el uso de tokens por minuto (TPM) y solicitudes por minuto (RPM).</t>
+          <t>Supervise los límites de frecuencia para el pago por uso: si usa el enfoque de pago por uso, administre los límites de velocidad para las implementaciones del modelo y supervise el uso de tokens por minuto (TPM) y solicitudes por minuto (RPM).</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Es importante supervisar el uso administrado por aprovisionamiento para asegurarse de que no supera el 100 % para evitar la limitación de las llamadas a los modelos implementados.</t>
+          <t>Es importante supervisar el uso administrado por el aprovisionamiento para asegurarse de que no supera el 100 % para evitar la limitación de las llamadas a los modelos implementados.</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Los filtros de contenido bloquean las solicitudes o finalizaciones en función de un análisis de riesgos opaco. Asegúrese de que los filtros de contenido estén ajustados para permitir el uso esperado de la carga de trabajo.</t>
+          <t>Los filtros de contenido bloquean las solicitudes o finalizaciones en función de un análisis de riesgos opaco. Asegúrese de que los filtros de contenido estén ajustados para permitir el uso esperado de su carga de trabajo.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1231,7 +1231,7 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Id. de Microsoft Entra: use el identificador de Microsoft Entra para la autenticación y para autorizar el acceso a Azure OpenAI mediante el control de acceso basado en roles (RBAC). Deshabilite la autenticación local en Azure AI Services y establezca 'disableLocalAuth' en 'true'. Otorgue a las identidades que realicen finalizaciones o generación de imágenes el rol de usuario de OpenAI de Cognitive Services. Conceda canalizaciones de automatización de modelos y acceso de ciencia de datos ad-hoc a un rol como Colaborador de OpenAI de Cognitive Services.</t>
+          <t>Id. de Microsoft Entra: use el id. de Microsoft Entra para la autenticación y para autorizar el acceso a Azure OpenAI mediante el control de acceso basado en roles (RBAC). Deshabilite la autenticación local en Azure AI Services y establezca 'disableLocalAuth' en 'true'. Otorgue a las identidades que realicen finalizaciones o generación de imágenes el rol de usuario de OpenAI de Cognitive Services. Otorgue a las canalizaciones de automatización de modelos y al acceso ad-hoc a la ciencia de datos un rol como el de Colaborador de OpenAI de Cognitive Services.</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>El uso de claves administradas por el cliente le ofrece una mayor flexibilidad para crear, rotar, deshabilitar y revocar controles de acceso.</t>
+          <t>El uso de claves administradas por el cliente le proporciona una mayor flexibilidad para crear, rotar, deshabilitar y revocar controles de acceso.</t>
         </is>
       </c>
       <c r="E14" s="21" t="n"/>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>El uso de las funciones de la API para restringir el uso alinea el consumo del servicio con las necesidades del cliente. Esto ahorra dinero al garantizar que el modelo no genere una respuesta demasiado larga que consuma más tokens de los necesarios.</t>
+          <t>El uso de las funciones de la API para restringir el uso alinea el consumo de servicios con las necesidades del cliente. Esto ahorra dinero al garantizar que el modelo no genere una respuesta demasiado larga que consuma más tokens de los necesarios.</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1367,7 +1367,7 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Supervise el uso de pago por uso: si usa el enfoque de pago por uso, supervise el uso de TPM y RPM. Utilice esa información para tomar decisiones informadas sobre el diseño arquitectónico, como qué modelos utilizar, y para optimizar los tamaños de las solicitudes.</t>
+          <t>Supervise el uso de pago por uso: si usa el enfoque de pago por uso, supervise el uso de TPM y RPM. Utilice esa información para tomar decisiones informadas sobre el diseño arquitectónico, como los modelos que se van a utilizar, y para optimizar los tamaños de las solicitudes.</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
@@ -1401,12 +1401,12 @@
       <c r="B18" s="21" t="n"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Supervise el uso del rendimiento aprovisionado: si utiliza el rendimiento aprovisionado, supervise el uso administrado por el aprovisionamiento para asegurarse de que no está infrautilizando el rendimiento aprovisionado que compró.</t>
+          <t>Supervise el uso del rendimiento aprovisionado: si usa el rendimiento aprovisionado, supervise el uso administrado por el aprovisionamiento para asegurarse de que no está infrautilizando el rendimiento aprovisionado que adquirió.</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>La supervisión continua de la utilización administrada por provisiones le proporciona la información que necesita para comprender si está infrautilizando el rendimiento aprovisionado.</t>
+          <t>La supervisión continua del uso administrado por el aprovisionamiento le proporciona la información que necesita para comprender si está infrautilizando el rendimiento aprovisionado.</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1435,7 +1435,7 @@
       <c r="B19" s="21" t="n"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Gestión de costes: Utilice las funciones de gestión de costes con OpenAI para supervisar los costes, establecer presupuestos para gestionar los costes y crear alertas para notificar a las partes interesadas sobre riesgos o anomalías.</t>
+          <t>Gestión de costes: Utilice las funciones de gestión de costes con OpenAI para supervisar los costes, establecer presupuestos para gestionarlos y crear alertas para notificar a las partes interesadas sobre riesgos o anomalías.</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Diagnósticos recopila y analiza métricas y registros, lo que le ayuda a supervisar la disponibilidad, el rendimiento y el funcionamiento de Azure OpenAI.</t>
+          <t>Diagnostics recopila y analiza métricas y registros, lo que le ayuda a supervisar la disponibilidad, el rendimiento y el funcionamiento de Azure OpenAI.</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Este control aún no se ha examinado</t>
+          <t>Esta comprobación aún no se ha examinado</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">

--- a/spreadsheet/macrofree/azureopenai_sg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/azureopenai_sg_checklist.es.xlsx
@@ -1061,7 +1061,7 @@
       <c r="B8" s="21" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Supervise los límites de frecuencia para el pago por uso: si usa el enfoque de pago por uso, administre los límites de velocidad para las implementaciones del modelo y supervise el uso de tokens por minuto (TPM) y solicitudes por minuto (RPM).</t>
+          <t>Supervisión de los límites de frecuencia para el pago por uso: si usa el enfoque de pago por uso, administre los límites de velocidad para las implementaciones del modelo y supervise el uso de tokens por minuto (TPM) y solicitudes por minuto (RPM).</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
@@ -1095,12 +1095,12 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Supervisión del uso administrado por aprovisionamiento para el rendimiento aprovisionado: si usa el modelo de pago por rendimiento aprovisionado, supervise el uso administrado por aprovisionamiento.</t>
+          <t>Supervisión de la utilización administrada por el aprovisionamiento para el rendimiento aprovisionado: si usa el modelo de pago por el rendimiento aprovisionado, supervise el uso administrado por el aprovisionamiento.</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Es importante supervisar el uso administrado por el aprovisionamiento para asegurarse de que no supera el 100 % para evitar la limitación de las llamadas a los modelos implementados.</t>
+          <t>Es importante supervisar el uso administrado por el aprovisionamiento para asegurarse de que no supere el 100 % para evitar la limitación de las llamadas a los modelos implementados.</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Controlar el acceso a Azure OpenAI ayuda a evitar ataques de usuarios no autorizados. El uso de puntos de conexión privados garantiza que el tráfico de red permanezca privado entre la aplicación y la plataforma.</t>
+          <t>El control del acceso a Azure OpenAI ayuda a evitar ataques de usuarios no autorizados. El uso de puntos de conexión privados garantiza que el tráfico de red permanezca privado entre la aplicación y la plataforma.</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1231,7 +1231,7 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Id. de Microsoft Entra: use el id. de Microsoft Entra para la autenticación y para autorizar el acceso a Azure OpenAI mediante el control de acceso basado en roles (RBAC). Deshabilite la autenticación local en Azure AI Services y establezca 'disableLocalAuth' en 'true'. Otorgue a las identidades que realicen finalizaciones o generación de imágenes el rol de usuario de OpenAI de Cognitive Services. Otorgue a las canalizaciones de automatización de modelos y al acceso ad-hoc a la ciencia de datos un rol como el de Colaborador de OpenAI de Cognitive Services.</t>
+          <t>Id. de Microsoft Entra: use el id. de Microsoft Entra para la autenticación y para autorizar el acceso a Azure OpenAI mediante el control de acceso basado en roles (RBAC). Deshabilite la autenticación local en Azure AI Services y establezca 'disableLocalAuth' en 'true'. Conceda a las identidades que realicen finalizaciones o generación de imágenes el rol de usuario de OpenAI de Cognitive Services. Otorgue a las canalizaciones de automatización de modelos y al acceso ad-hoc a la ciencia de datos un rol como el de Colaborador de OpenAI de Cognitive Services.</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
@@ -1265,7 +1265,7 @@
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Use claves administradas por el cliente: use claves administradas por el cliente para los modelos optimizados y los datos de entrenamiento que se cargan en Azure OpenAI.</t>
+          <t>Use claves administradas por el cliente: use claves administradas por el cliente para modelos ajustados y datos de entrenamiento que se cargan en Azure OpenAI.</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
@@ -1333,7 +1333,7 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Diseño del código de cliente para establecer límites: los clientes personalizados deben usar las características de límite de la API de finalizaciones de Azure OpenAI, como el límite máximo en el número de tokens por modelo ('max_tokens') o el número de finalizaciones hasta la generación ('n'). Establecer límites garantiza que el servidor no produzca más de lo que el cliente necesita.</t>
+          <t>Diseño del código de cliente para establecer límites: los clientes personalizados deben usar las características de límite de la API de finalizaciones de Azure OpenAI, como el límite máximo en el número de tokens por modelo ('max_tokens') o el número de finalizaciones para la generación ('n'). Establecer límites garantiza que el servidor no produzca más de lo que el cliente necesita.</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
@@ -1401,12 +1401,12 @@
       <c r="B18" s="21" t="n"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Supervise el uso del rendimiento aprovisionado: si usa el rendimiento aprovisionado, supervise el uso administrado por el aprovisionamiento para asegurarse de que no está infrautilizando el rendimiento aprovisionado que adquirió.</t>
+          <t>Supervise el uso del rendimiento aprovisionado: si usa el rendimiento aprovisionado, supervise el uso administrado por el aprovisionamiento para asegurarse de que no está infrautilizando el rendimiento aprovisionado que compró.</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>La supervisión continua del uso administrado por el aprovisionamiento le proporciona la información que necesita para comprender si está infrautilizando el rendimiento aprovisionado.</t>
+          <t>La supervisión continua de la utilización administrada por el aprovisionamiento le proporciona la información que necesita para comprender si está infrautilizando el rendimiento aprovisionado.</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1435,7 +1435,7 @@
       <c r="B19" s="21" t="n"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Gestión de costes: Utilice las funciones de gestión de costes con OpenAI para supervisar los costes, establecer presupuestos para gestionarlos y crear alertas para notificar a las partes interesadas sobre riesgos o anomalías.</t>
+          <t>Gestión de costes: Utilice las funciones de gestión de costes con OpenAI para supervisar los costes, establecer presupuestos para gestionar los costes y crear alertas para notificar a las partes interesadas los riesgos o anomalías.</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
